--- a/public/assets/template/sampleImportAset.xlsx
+++ b/public/assets/template/sampleImportAset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\manajemen-aset\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51981FB-24A4-4259-97B0-B08E4D247DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD83457-C039-4235-9C9F-032AE6F584DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{DC3E753A-C2FB-473A-BBF8-4BCBA285966F}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Kode Ruang</t>
   </si>
   <si>
-    <t>Uraian Ruang</t>
-  </si>
-  <si>
     <t>Catatan</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Sumber Pengadaan</t>
+  </si>
+  <si>
+    <t>Kode Gedung</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,25 +525,25 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template/sampleImportAset.xlsx
+++ b/public/assets/template/sampleImportAset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\manajemen-aset\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD83457-C039-4235-9C9F-032AE6F584DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9A387F-8290-4CA0-A0C7-5A404558DFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{DC3E753A-C2FB-473A-BBF8-4BCBA285966F}"/>
   </bookViews>
@@ -35,52 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Nomor</t>
-  </si>
-  <si>
-    <t>Sub Nomor</t>
-  </si>
-  <si>
-    <t>Satuan</t>
-  </si>
-  <si>
-    <t>Kode Barang</t>
-  </si>
-  <si>
-    <t>No Aset</t>
-  </si>
-  <si>
-    <t>Tercatat</t>
-  </si>
-  <si>
-    <t>Kode Lokasi</t>
-  </si>
-  <si>
-    <t>Kode Perkap</t>
-  </si>
-  <si>
-    <t>Kondisi Aset</t>
-  </si>
-  <si>
-    <t>Uraian Aset</t>
-  </si>
-  <si>
-    <t>Uraian Perkap</t>
-  </si>
-  <si>
-    <t>Kode Ruang</t>
-  </si>
-  <si>
-    <t>Catatan</t>
-  </si>
-  <si>
-    <t>Kondisi</t>
-  </si>
-  <si>
-    <t>Nominal Aset</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Foto Aset</t>
   </si>
@@ -91,14 +46,62 @@
     <t>Sumber Pengadaan</t>
   </si>
   <si>
-    <t>Kode Gedung</t>
+    <t>kel</t>
+  </si>
+  <si>
+    <t>skel</t>
+  </si>
+  <si>
+    <t>satuan</t>
+  </si>
+  <si>
+    <t>kd_brg</t>
+  </si>
+  <si>
+    <t>no_aset</t>
+  </si>
+  <si>
+    <t>tercatat</t>
+  </si>
+  <si>
+    <t>kd_lokasi</t>
+  </si>
+  <si>
+    <t>kd_perk</t>
+  </si>
+  <si>
+    <t>kondisi</t>
+  </si>
+  <si>
+    <t>urai</t>
+  </si>
+  <si>
+    <t>urperk</t>
+  </si>
+  <si>
+    <t>kd_ruang</t>
+  </si>
+  <si>
+    <t>ur_ruang</t>
+  </si>
+  <si>
+    <t>catat</t>
+  </si>
+  <si>
+    <t>kondi</t>
+  </si>
+  <si>
+    <t>sakhir</t>
+  </si>
+  <si>
+    <t>kd_gedung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +116,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -138,15 +151,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4B1F4BAA-80CA-41F5-812C-12A66295DFC2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5D4B48-C316-4E0D-8BB8-A6BE7AE55370}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,73 +493,76 @@
     <col min="9" max="9" width="18.5546875" customWidth="1"/>
     <col min="10" max="10" width="16.109375" customWidth="1"/>
     <col min="11" max="11" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="24.109375" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="12" max="13" width="21.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="24.109375" customWidth="1"/>
+    <col min="20" max="20" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
